--- a/medicine/Enfance/Pâte_alimentaire_alphabet/Pâte_alimentaire_alphabet.xlsx
+++ b/medicine/Enfance/Pâte_alimentaire_alphabet/Pâte_alimentaire_alphabet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A2te_alimentaire_alphabet</t>
+          <t>Pâte_alimentaire_alphabet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pâte alimentaire alphabet, aussi appelée pâte romaine, Alfabeto ou spaghetti Alphabetti, est un morceau de pâte alimentaire moulé ou coupé de façon à former la lettre d'un alphabet. Ces lettres sont commercialisées sous forme de pâtes sèches comme pâtes à potage ou comme n'importe quel autre type de pâtes à la casserole.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A2te_alimentaire_alphabet</t>
+          <t>Pâte_alimentaire_alphabet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1857, Charles-François Vesin, prétendu comte de Romanini, ministre plénipotentiaire de la république de Greytown et consul du Nicaragua, établi 62 rue de Richelieu à Paris, dépose plusieurs brevets liés à l'alimentation[1],[2]: un vin mousseux ; une pâtisserie dite « dessert de Paris, alphabétique, parlant et figuré » ; des caramels-papillotes dits « caramels Vesin » ; une pâte alimentaire dite « neige divine » et son couteau de préparation à quatre tranchants dit « Romanin » ; et enfin, des « pâtes alphabétiques, parlantes et figurées »[3],[4]. L'année suivante, Vesin est jugé à plusieurs reprises pour avoir vendu et porté de faux titres de noblesse[5],[6]. Il écope notamment de 500 francs d'amende et d'un an de prison[7].
-En 1860, le fabricant de pâtes parisien Bousquin (ancienne maison Châtillon)— installé non loin de la rue de Richelieu, aux 26, 28 et 30 galerie Vivienne — annonce lancer de nouveaux produits, des « pâtes romaines, alphabétiques et chiffrées »[8],[9]. Selon une publicité parue en 1865 dans le journal L'Événement, elles sont « faites avec des blés de Sicile et fabriquées par un procédé spécial, leur forme est variée à l'infini, puisqu'elles représentent toutes les lettres de l'alphabet et tous les chiffres. » L'argumentaire précise qu'« elles sont, de plus, à cause de leur forme nouvelle, un sujet de distraction dans les familles. » Cette invention fait l'objet d'une chronique satirique dans Le Tintamarre en 1863[10], mais d'autres articles sont plus favorables, soulignant que les pâtes romaines « apprendront [aux enfants] leurs lettres et leurs chiffres sans qu'ils s'en doutent. » [11]. À l'Exposition universelle de 1867 à Paris, Bousquin revendique explicitement l'invention des pâtes alphabet, qui deviennent un produit phare de son catalogue[12],[13],[14].
-Dès 1862, la maison lyonnaise Bertrand et Cie présente également, à l'Exposition universelle de Londres, des « pâtes romaines, alphabétiques et chiffres », fabriquées « avec les blés durs de l'Algérie »[15]. D'autres fabricants reprennent aussi le procédé, comme, en 1867, la maison Dussaud, qui « fabrique et vend des pâtes représentant les diverses lettres de l'alphabet, les chiffres arabes, divers autres chiffres et quelques-uns des emblèmes de la Passion »[16].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1857, Charles-François Vesin, prétendu comte de Romanini, ministre plénipotentiaire de la république de Greytown et consul du Nicaragua, établi 62 rue de Richelieu à Paris, dépose plusieurs brevets liés à l'alimentation,: un vin mousseux ; une pâtisserie dite « dessert de Paris, alphabétique, parlant et figuré » ; des caramels-papillotes dits « caramels Vesin » ; une pâte alimentaire dite « neige divine » et son couteau de préparation à quatre tranchants dit « Romanin » ; et enfin, des « pâtes alphabétiques, parlantes et figurées »,. L'année suivante, Vesin est jugé à plusieurs reprises pour avoir vendu et porté de faux titres de noblesse,. Il écope notamment de 500 francs d'amende et d'un an de prison.
+En 1860, le fabricant de pâtes parisien Bousquin (ancienne maison Châtillon)— installé non loin de la rue de Richelieu, aux 26, 28 et 30 galerie Vivienne — annonce lancer de nouveaux produits, des « pâtes romaines, alphabétiques et chiffrées »,. Selon une publicité parue en 1865 dans le journal L'Événement, elles sont « faites avec des blés de Sicile et fabriquées par un procédé spécial, leur forme est variée à l'infini, puisqu'elles représentent toutes les lettres de l'alphabet et tous les chiffres. » L'argumentaire précise qu'« elles sont, de plus, à cause de leur forme nouvelle, un sujet de distraction dans les familles. » Cette invention fait l'objet d'une chronique satirique dans Le Tintamarre en 1863, mais d'autres articles sont plus favorables, soulignant que les pâtes romaines « apprendront [aux enfants] leurs lettres et leurs chiffres sans qu'ils s'en doutent. » . À l'Exposition universelle de 1867 à Paris, Bousquin revendique explicitement l'invention des pâtes alphabet, qui deviennent un produit phare de son catalogue.
+Dès 1862, la maison lyonnaise Bertrand et Cie présente également, à l'Exposition universelle de Londres, des « pâtes romaines, alphabétiques et chiffres », fabriquées « avec les blés durs de l'Algérie ». D'autres fabricants reprennent aussi le procédé, comme, en 1867, la maison Dussaud, qui « fabrique et vend des pâtes représentant les diverses lettres de l'alphabet, les chiffres arabes, divers autres chiffres et quelques-uns des emblèmes de la Passion ».
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A2te_alimentaire_alphabet</t>
+          <t>Pâte_alimentaire_alphabet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pâtes alphabet sont parfois servies dans une soupe vendue en boîtes de conserve qui contient un bouillon concentré [réf. nécessaire]. Aux États-Unis, cette soupe à l'alphabet obtient une certaine faveur populaire depuis plusieurs décennies[réf. nécessaire].
-Il existe des variations, dont des pâtes dans une marinara ou dans une sauce à spaghetti. Par exemple, l'Alphabetti Spaghetti a été vendu par H. J. Heinz pendant 60 ans, avant d'être arrêté en 1990. Il a été commercialisé à nouveau par Heinz en 2005[17],[18].
+Il existe des variations, dont des pâtes dans une marinara ou dans une sauce à spaghetti. Par exemple, l'Alphabetti Spaghetti a été vendu par H. J. Heinz pendant 60 ans, avant d'être arrêté en 1990. Il a été commercialisé à nouveau par Heinz en 2005,.
 </t>
         </is>
       </c>
